--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,51 +52,54 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>shame</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -118,51 +121,51 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -172,37 +175,46 @@
     <t>like</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>data</t>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -560,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -700,16 +712,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,16 +762,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8698630136986302</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C6">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D6">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>0.9302325581395349</v>
@@ -879,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,16 +912,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.9268929503916449</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M8">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.775</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -979,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7692307692307693</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,16 +1012,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8962264150943396</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7538759689922481</v>
+        <v>0.7693798449612403</v>
       </c>
       <c r="C11">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D11">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8943661971830986</v>
+        <v>0.8984375</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7450980392156863</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8875</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <v>0.8793103448275862</v>
+      </c>
+      <c r="L14">
         <v>51</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14">
-        <v>0.890625</v>
-      </c>
-      <c r="L14">
-        <v>114</v>
-      </c>
       <c r="M14">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,16 +1262,16 @@
         <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6778523489932886</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="C16">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D16">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6756756756756757</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6727272727272727</v>
+        <v>0.6644295302013423</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5600000000000001</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7936507936507936</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5178571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>0.7916666666666666</v>
@@ -1529,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4909090909090909</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21">
         <v>0.7764705882352941</v>
@@ -1579,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4777777777777778</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7491525423728813</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4126984126984127</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C23">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7405857740585774</v>
+        <v>0.76</v>
       </c>
       <c r="L23">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1691,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3766233766233766</v>
+        <v>0.4007936507936508</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.7340425531914894</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1729,13 +1741,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3375</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1747,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.7191011235955056</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L25">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="M25">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1771,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1779,64 +1791,88 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1715817694369973</v>
+        <v>0.35</v>
       </c>
       <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>52</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>0.7280334728033473</v>
+      </c>
+      <c r="L26">
+        <v>174</v>
+      </c>
+      <c r="M26">
+        <v>174</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.1983914209115281</v>
+      </c>
+      <c r="C27">
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>299</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.7191011235955056</v>
+      </c>
+      <c r="L27">
         <v>64</v>
       </c>
-      <c r="D26">
+      <c r="M27">
         <v>64</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>309</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.7076923076923077</v>
-      </c>
-      <c r="L26">
-        <v>46</v>
-      </c>
-      <c r="M26">
-        <v>46</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.68</v>
-      </c>
-      <c r="L27">
-        <v>34</v>
-      </c>
-      <c r="M27">
-        <v>34</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
@@ -1847,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.6714285714285714</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1873,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.6222222222222222</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1899,21 +1935,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.5753424657534246</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1925,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.4615384615384616</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1951,33 +1987,111 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.4385964912280702</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
+        <v>45</v>
+      </c>
+      <c r="M32">
+        <v>45</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>25</v>
       </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>32</v>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L33">
+        <v>40</v>
+      </c>
+      <c r="M33">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="L34">
+        <v>41</v>
+      </c>
+      <c r="M34">
+        <v>41</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35">
+        <v>0.40625</v>
+      </c>
+      <c r="L35">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
